--- a/assets/dolar_blue3.xlsx
+++ b/assets/dolar_blue3.xlsx
@@ -5,7 +5,7 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\walte\Downloads\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M47"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2388,6 +2388,47 @@
         <v>2.6113769845028187</v>
       </c>
     </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45231</v>
+      </c>
+      <c r="B48">
+        <v>-6.9361127797502364</v>
+      </c>
+      <c r="C48">
+        <v>55.172888442129064</v>
+      </c>
+      <c r="D48">
+        <v>-3.2911625408902405</v>
+      </c>
+      <c r="E48">
+        <v>33.217326703594509</v>
+      </c>
+      <c r="F48">
+        <v>0.69756719558443425</v>
+      </c>
+      <c r="G48">
+        <v>49.17008893819979</v>
+      </c>
+      <c r="H48">
+        <v>0.37120865827998389</v>
+      </c>
+      <c r="I48">
+        <v>45.534272602387873</v>
+      </c>
+      <c r="J48">
+        <v>33.958496750728067</v>
+      </c>
+      <c r="K48">
+        <v>105954.19507816256</v>
+      </c>
+      <c r="L48">
+        <v>11.083</v>
+      </c>
+      <c r="M48">
+        <v>2.6113769845028187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/assets/dolar_blue3.xlsx
+++ b/assets/dolar_blue3.xlsx
@@ -455,7 +455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D26" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
       <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
@@ -2396,37 +2396,37 @@
         <v>-6.9361127797502364</v>
       </c>
       <c r="C48">
-        <v>55.172888442129064</v>
+        <v>4.1849700687981777</v>
       </c>
       <c r="D48">
         <v>-3.2911625408902405</v>
       </c>
       <c r="E48">
-        <v>33.217326703594509</v>
+        <v>3.0863792324480119</v>
       </c>
       <c r="F48">
         <v>0.69756719558443425</v>
       </c>
       <c r="G48">
-        <v>49.17008893819979</v>
+        <v>3.402431639216287</v>
       </c>
       <c r="H48">
         <v>0.37120865827998389</v>
       </c>
       <c r="I48">
-        <v>45.534272602387873</v>
+        <v>2.5954776965545938</v>
       </c>
       <c r="J48">
         <v>33.958496750728067</v>
       </c>
       <c r="K48">
-        <v>105954.19507816256</v>
+        <v>6.5399289594906875</v>
       </c>
       <c r="L48">
         <v>11.083</v>
       </c>
       <c r="M48">
-        <v>2.6113769845028187</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/assets/dolar_blue3.xlsx
+++ b/assets/dolar_blue3.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Documents\1-1-1-App desarrolladas con Python - Streamlit-dash-plotly\app_var_fin_1\assets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Downloads\app_var_fin-main\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9048"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14304" windowHeight="9048"/>
   </bookViews>
   <sheets>
     <sheet name="data4" sheetId="4" r:id="rId1"/>
@@ -453,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M48"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51:L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2429,6 +2429,47 @@
         <v>0</v>
       </c>
     </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B49">
+        <v>12.451295</v>
+      </c>
+      <c r="C49">
+        <v>3.2518779999999997E-2</v>
+      </c>
+      <c r="D49">
+        <v>15.075118887055746</v>
+      </c>
+      <c r="E49">
+        <v>3.7415667549074522E-2</v>
+      </c>
+      <c r="F49">
+        <v>14.718338311586649</v>
+      </c>
+      <c r="G49">
+        <v>2.6295982261630838E-2</v>
+      </c>
+      <c r="H49">
+        <v>9.5725764438588232</v>
+      </c>
+      <c r="I49">
+        <v>3.9753090655020862E-2</v>
+      </c>
+      <c r="J49">
+        <v>12.657510835721727</v>
+      </c>
+      <c r="K49">
+        <v>3.4866774567943959E-2</v>
+      </c>
+      <c r="L49">
+        <v>8.33</v>
+      </c>
+      <c r="M49">
+        <v>6.5418554156660327E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
